--- a/Data/aearep-381/candidatepackages.xlsx
+++ b/Data/aearep-381/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,15 +22,9 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>coefplot</t>
   </si>
   <si>
@@ -49,18 +43,15 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>sutex</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>mpi</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
@@ -70,36 +61,30 @@
     <t>rev</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>art</t>
   </si>
   <si>
     <t>detect</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
-    <t>bys</t>
+    <t>zip</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -109,12 +94,12 @@
     <t>spaces</t>
   </si>
   <si>
+    <t>meaning</t>
+  </si>
+  <si>
     <t>digits</t>
   </si>
   <si>
-    <t>meaning</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -127,21 +112,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-381</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-381/116581/Code</t>
   </si>
   <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>Census_Data_Processing.do</t>
   </si>
   <si>
@@ -149,9 +125,6 @@
   </si>
   <si>
     <t>Read_In_Data.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
 </sst>
 </file>
@@ -195,7 +168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -203,13 +176,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -229,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -241,7 +214,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -253,7 +226,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -265,7 +238,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -277,7 +250,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -289,7 +262,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>291</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -301,7 +274,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -313,7 +286,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -325,10 +298,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D11"/>
     </row>
@@ -337,10 +310,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>279</v>
+        <v>523</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.17289255559444427</v>
       </c>
       <c r="D12"/>
     </row>
@@ -349,10 +322,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>356</v>
+        <v>563</v>
       </c>
       <c r="C13">
-        <v>0.11803713440895081</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D13"/>
     </row>
@@ -361,10 +334,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>502</v>
+        <v>706</v>
       </c>
       <c r="C14">
-        <v>0.16644562780857086</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D14"/>
     </row>
@@ -373,10 +346,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>565</v>
+        <v>746</v>
       </c>
       <c r="C15">
-        <v>0.18733422458171844</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D15"/>
     </row>
@@ -385,10 +358,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>566</v>
+        <v>998</v>
       </c>
       <c r="C16">
-        <v>0.18766577541828156</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D16"/>
     </row>
@@ -397,10 +370,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>694</v>
+        <v>1011</v>
       </c>
       <c r="C17">
-        <v>0.23010610044002533</v>
+        <v>0.33421486616134644</v>
       </c>
       <c r="D17"/>
     </row>
@@ -409,10 +382,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>698</v>
+        <v>1071</v>
       </c>
       <c r="C18">
-        <v>0.23143236339092255</v>
+        <v>0.35404959321022034</v>
       </c>
       <c r="D18"/>
     </row>
@@ -421,10 +394,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>942</v>
+        <v>1125</v>
       </c>
       <c r="C19">
-        <v>0.31233420968055725</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D19"/>
     </row>
@@ -433,10 +406,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>961</v>
+        <v>1306</v>
       </c>
       <c r="C20">
-        <v>0.31863394379615784</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D20"/>
     </row>
@@ -445,10 +418,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>985</v>
+        <v>1414</v>
       </c>
       <c r="C21">
-        <v>0.32659152150154114</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D21"/>
     </row>
@@ -457,10 +430,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1194</v>
+        <v>1658</v>
       </c>
       <c r="C22">
-        <v>0.39588859677314758</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D22"/>
     </row>
@@ -469,10 +442,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1423</v>
+        <v>1678</v>
       </c>
       <c r="C23">
-        <v>0.47181698679924011</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D23"/>
     </row>
@@ -481,10 +454,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1472</v>
+        <v>1724</v>
       </c>
       <c r="C24">
-        <v>0.48806366324424744</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D24"/>
     </row>
@@ -493,10 +466,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1621</v>
+        <v>2074</v>
       </c>
       <c r="C25">
-        <v>0.53746682405471802</v>
+        <v>0.68561983108520508</v>
       </c>
       <c r="D25"/>
     </row>
@@ -505,10 +478,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1798</v>
+        <v>2309</v>
       </c>
       <c r="C26">
-        <v>0.5961538553237915</v>
+        <v>0.76330578327178955</v>
       </c>
       <c r="D26"/>
     </row>
@@ -517,10 +490,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1817</v>
+        <v>2359</v>
       </c>
       <c r="C27">
-        <v>0.60245358943939209</v>
+        <v>0.77983468770980835</v>
       </c>
       <c r="D27"/>
     </row>
@@ -529,72 +502,12 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1859</v>
+        <v>2540</v>
       </c>
       <c r="C28">
-        <v>0.61637932062149048</v>
+        <v>0.83966940641403198</v>
       </c>
       <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1890</v>
-      </c>
-      <c r="C29">
-        <v>0.62665784358978271</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2239</v>
-      </c>
-      <c r="C30">
-        <v>0.7423740029335022</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>2244</v>
-      </c>
-      <c r="C31">
-        <v>0.74403184652328491</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>2375</v>
-      </c>
-      <c r="C32">
-        <v>0.78746682405471802</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>2529</v>
-      </c>
-      <c r="C33">
-        <v>0.8385278582572937</v>
-      </c>
-      <c r="D33"/>
     </row>
   </sheetData>
 </worksheet>
@@ -602,63 +515,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
